--- a/game/各平台游戏名称中英文对照合集/松下3DO中英文对照表.xlsx
+++ b/game/各平台游戏名称中英文对照合集/松下3DO中英文对照表.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dellm4600\L\git\vskeddemolist\game\各平台游戏名称中英文对照合集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E0FE30-1A0E-4C53-842D-B23D9BECC432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49AC2F6-1937-4827-B08C-A4BAA9077981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$630</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="1828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1886">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1359,19 +1362,10 @@
     <t>3DO#151</t>
   </si>
   <si>
-    <t>Eye of Typhoon (Korea)</t>
-  </si>
-  <si>
     <t>3DO#152</t>
   </si>
   <si>
-    <t>Eye of Typhoon, The (Korea)</t>
-  </si>
-  <si>
     <t>3DO#153</t>
-  </si>
-  <si>
-    <t>Eye of Typhoon, The (Korea) (Disc 1)</t>
   </si>
   <si>
     <t>3DO#154</t>
@@ -5583,6 +5577,249 @@
   </si>
   <si>
     <t>3DO#163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3DO上学习、观察与玩耍：中岛美雪篇（日本版）</t>
+  </si>
+  <si>
+    <t>世界末日（韩国版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗蓝调（韩国版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体意识数字狂欢！第一部分：新宿与高崎（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡龙（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹尼斯·米勒：这是新闻吗（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESPN健身专家：踏步有氧操（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESPN一起滑雪吧：皮卡波·斯特里特、A.J.基特和霍莉·弗兰德斯篇（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESPN一起打沙滩排球吧：卡尔奇·基拉利与卡萝琳·柯比篇（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESPN一起踢足球吧：约翰·哈克斯与米娅·哈姆篇（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESPN一起打网球吧：特蕾西·奥斯汀篇（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	台风眼（韩国版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The  Eye of Typhoon(Korea) (Disc 1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Eye of Typhoon (Korea)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台风眼（韩国版）（光盘1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖熊的娱乐包（韩国版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FB电池导航Ver.II（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防火墙（韩国版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娱乐与游戏（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语入门：轻松学英语！（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯蒂猫：玩具盒里的游戏（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平田庄吾互动绘本：白雪公主（日本版）（英、日、法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interplay 3DO自助餐（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爵士即兴演奏（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防活动学习：3DO TES教育系统（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自卫队世界（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急救ABC手册（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小屋（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益智谜题（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体新书：驾校——普通驾照课程篇（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.O.B.（新型有机生物形态）（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内视How's 1：前方视野（1995年8月1日版本1.0 R2.0）（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家-松下合集（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新How's 1：前方视野（1994年9月1日版本1.0）（日本版）（Rev A）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石油人（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下3DO互动多人体验试玩光盘（德国版）（英文、德文）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下REAL 3DO互动多人系统演示光盘（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下REAL 3DO互动多人系统试玩光盘（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下REAL 3DO互动多人系统试玩光盘（日本版）（Rev 1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下REAL 3DO互动多人系统试玩光盘（美版）（ZAZ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下REAL 3DO互动多人系统试玩光盘（美版）（ZBZ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下REAL 3DO互动多人系统PAL制式试玩光盘（欧洲版）（Rev 1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下REAL 3DO互动多人系统试玩III与3DO存储管理器（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松下特别CD-ROM（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克总指挥（美版/德版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小火车去月球（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四分卫进攻（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣地亚哥动物园呈现：动物们！（美版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地任务：特蕾西·斯科金斯主演（欧洲版）（光盘1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地任务：特蕾西·斯科金斯主演（欧洲版）（光盘2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地任务：特蕾西·斯科金斯主演（美版）（光盘1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪地任务：特蕾西·斯科金斯主演（美版）（光盘2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级模特：盖尔·麦肯纳（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级新星：电池导航（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统目录：企业用系统的介绍（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰田户外世界（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰田房车马场（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟摄像师第三部：杉本由美香（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟摄像师第四部：藤谷志织（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟摄像师第五部：安藤由理（日本版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是谁射杀了强尼·洛克（美版）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5918,18 +6155,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C630"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="54.75" customWidth="1"/>
-    <col min="3" max="3" width="43.875" customWidth="1"/>
+    <col min="2" max="2" width="79.25" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5940,7 +6175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5951,7 +6186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -5962,7 +6197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5973,15 +6208,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5992,7 +6230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6003,7 +6241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -6014,7 +6252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6025,7 +6263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6036,7 +6274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6047,7 +6285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6058,7 +6296,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -6069,7 +6307,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -6080,7 +6318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -6091,7 +6329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -6102,7 +6340,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -6113,7 +6351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -6124,7 +6362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -6135,7 +6373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -6146,7 +6384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -6157,7 +6395,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -6168,7 +6406,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -6179,15 +6417,18 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -6198,7 +6439,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -6209,7 +6450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -6220,7 +6461,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -6231,15 +6472,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -6250,7 +6494,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -6261,7 +6505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -6272,7 +6516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -6283,7 +6527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -6294,7 +6538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -6305,7 +6549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -6316,7 +6560,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -6327,7 +6571,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -6338,7 +6582,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -6349,7 +6593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -6360,7 +6604,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -6371,7 +6615,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -6382,7 +6626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -6393,7 +6637,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -6404,7 +6648,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -6415,15 +6659,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>132</v>
       </c>
       <c r="B46" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>134</v>
       </c>
@@ -6434,7 +6681,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -6445,7 +6692,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>140</v>
       </c>
@@ -6456,7 +6703,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -6467,7 +6714,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>146</v>
       </c>
@@ -6478,7 +6725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>149</v>
       </c>
@@ -6489,7 +6736,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -6500,7 +6747,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -6511,15 +6758,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>160</v>
       </c>
@@ -6530,7 +6780,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -6541,7 +6791,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -6552,7 +6802,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -6563,7 +6813,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>172</v>
       </c>
@@ -6574,7 +6824,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>175</v>
       </c>
@@ -6585,7 +6835,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -6596,7 +6846,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -6607,7 +6857,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>184</v>
       </c>
@@ -6618,7 +6868,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -6629,7 +6879,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>190</v>
       </c>
@@ -6640,7 +6890,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>193</v>
       </c>
@@ -6651,7 +6901,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -6662,7 +6912,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>199</v>
       </c>
@@ -6673,7 +6923,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -6684,7 +6934,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>205</v>
       </c>
@@ -6695,7 +6945,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>208</v>
       </c>
@@ -6706,7 +6956,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -6717,7 +6967,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>214</v>
       </c>
@@ -6728,7 +6978,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>217</v>
       </c>
@@ -6739,7 +6989,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>220</v>
       </c>
@@ -6750,7 +7000,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -6761,7 +7011,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -6772,7 +7022,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>229</v>
       </c>
@@ -6783,7 +7033,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>232</v>
       </c>
@@ -6794,7 +7044,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>235</v>
       </c>
@@ -6805,7 +7055,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>238</v>
       </c>
@@ -6816,7 +7066,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>241</v>
       </c>
@@ -6827,7 +7077,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -6838,7 +7088,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>247</v>
       </c>
@@ -6849,7 +7099,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>250</v>
       </c>
@@ -6860,7 +7110,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>253</v>
       </c>
@@ -6871,7 +7121,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>256</v>
       </c>
@@ -6882,7 +7132,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>259</v>
       </c>
@@ -6893,7 +7143,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -6904,7 +7154,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>265</v>
       </c>
@@ -6915,7 +7165,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>268</v>
       </c>
@@ -6926,7 +7176,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>271</v>
       </c>
@@ -6937,7 +7187,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>274</v>
       </c>
@@ -6948,7 +7198,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>277</v>
       </c>
@@ -6959,7 +7209,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>280</v>
       </c>
@@ -6970,7 +7220,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>283</v>
       </c>
@@ -6981,7 +7231,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -6992,7 +7242,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>289</v>
       </c>
@@ -7003,7 +7253,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>292</v>
       </c>
@@ -7014,7 +7264,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>295</v>
       </c>
@@ -7025,7 +7275,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>298</v>
       </c>
@@ -7036,7 +7286,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>301</v>
       </c>
@@ -7047,7 +7297,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>304</v>
       </c>
@@ -7058,7 +7308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>307</v>
       </c>
@@ -7069,7 +7319,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>310</v>
       </c>
@@ -7080,7 +7330,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>313</v>
       </c>
@@ -7091,7 +7341,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>316</v>
       </c>
@@ -7102,7 +7352,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>319</v>
       </c>
@@ -7113,7 +7363,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>322</v>
       </c>
@@ -7124,7 +7374,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>325</v>
       </c>
@@ -7135,7 +7385,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>328</v>
       </c>
@@ -7146,7 +7396,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>331</v>
       </c>
@@ -7157,7 +7407,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>334</v>
       </c>
@@ -7168,7 +7418,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>337</v>
       </c>
@@ -7179,15 +7429,18 @@
         <v>339</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>340</v>
       </c>
       <c r="B116" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>342</v>
       </c>
@@ -7198,7 +7451,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>345</v>
       </c>
@@ -7209,7 +7462,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>348</v>
       </c>
@@ -7220,7 +7473,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>351</v>
       </c>
@@ -7231,7 +7484,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>354</v>
       </c>
@@ -7242,7 +7495,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>357</v>
       </c>
@@ -7253,7 +7506,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>360</v>
       </c>
@@ -7264,7 +7517,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>363</v>
       </c>
@@ -7275,7 +7528,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>366</v>
       </c>
@@ -7286,7 +7539,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>369</v>
       </c>
@@ -7297,7 +7550,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>372</v>
       </c>
@@ -7308,7 +7561,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>375</v>
       </c>
@@ -7319,7 +7572,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>378</v>
       </c>
@@ -7330,7 +7583,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>381</v>
       </c>
@@ -7341,7 +7594,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>384</v>
       </c>
@@ -7352,7 +7605,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>387</v>
       </c>
@@ -7363,7 +7616,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>390</v>
       </c>
@@ -7374,7 +7627,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>393</v>
       </c>
@@ -7385,7 +7638,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>396</v>
       </c>
@@ -7396,7 +7649,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>399</v>
       </c>
@@ -7407,7 +7660,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>402</v>
       </c>
@@ -7418,7 +7671,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>405</v>
       </c>
@@ -7429,7 +7682,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>408</v>
       </c>
@@ -7440,15 +7693,18 @@
         <v>410</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>411</v>
       </c>
       <c r="B140" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>413</v>
       </c>
@@ -7459,7 +7715,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>416</v>
       </c>
@@ -7470,7 +7726,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>419</v>
       </c>
@@ -7481,7 +7737,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>422</v>
       </c>
@@ -7492,7 +7748,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>425</v>
       </c>
@@ -7503,7 +7759,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>428</v>
       </c>
@@ -7514,7 +7770,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>431</v>
       </c>
@@ -7525,5161 +7781,5321 @@
         <v>433</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>434</v>
       </c>
       <c r="B148" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>436</v>
       </c>
       <c r="B149" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>438</v>
       </c>
       <c r="B150" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>440</v>
       </c>
       <c r="B151" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>442</v>
       </c>
       <c r="B152" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>444</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="B155" t="s">
         <v>446</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C155" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>448</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>449</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>451</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>452</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>454</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>455</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>457</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>458</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="B160" t="s">
         <v>460</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C160" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>462</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>463</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>465</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>466</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="B163" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C163" t="s">
         <v>468</v>
       </c>
-      <c r="B162" t="s">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B164" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="C164" t="s">
         <v>470</v>
       </c>
-      <c r="B163" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C163" t="s">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B165" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>1827</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="C165" t="s">
         <v>472</v>
       </c>
-      <c r="C164" t="s">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>1826</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>474</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C166" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>476</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>477</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C167" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="B168" t="s">
         <v>479</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C168" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>481</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>482</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C169" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>484</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>485</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
         <v>487</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>488</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C171" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>490</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>491</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C172" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>493</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>494</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C173" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>496</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>497</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C174" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>499</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>500</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>502</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>503</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C176" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
         <v>505</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>506</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C177" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
         <v>508</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>509</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C178" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="B179" t="s">
         <v>511</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C179" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>513</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>514</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>516</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>517</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C181" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>519</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>520</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="B183" t="s">
         <v>522</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C183" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>524</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>525</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C184" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
         <v>527</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>528</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C185" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
         <v>530</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>531</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C186" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>533</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>534</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C187" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
         <v>536</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>537</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C188" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
         <v>539</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>540</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>542</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>543</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
         <v>545</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>546</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
         <v>548</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>549</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
         <v>551</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>552</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
         <v>554</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>555</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
         <v>557</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>558</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
         <v>560</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>561</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
         <v>563</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>564</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
         <v>566</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>567</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
         <v>569</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>570</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="B200" t="s">
         <v>572</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C200" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
         <v>574</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>575</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
         <v>577</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>578</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
         <v>580</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>581</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
         <v>583</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>584</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
         <v>586</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>587</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="B206" t="s">
         <v>589</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C206" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>591</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>592</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
         <v>594</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>595</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C208" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
         <v>597</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>598</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C209" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>600</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>601</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C210" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>603</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>604</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C211" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>606</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>607</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C212" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>609</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>610</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C213" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>612</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>613</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C214" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>615</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>616</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C215" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>618</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>619</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C216" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>621</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>622</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C217" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>624</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>625</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>627</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>628</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C219" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>630</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>631</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C220" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>633</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>634</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>636</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>637</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C222" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>639</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>640</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C223" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>642</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>643</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C224" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>645</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>646</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C225" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="B226" t="s">
         <v>648</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C226" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
         <v>650</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>651</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>653</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>654</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
         <v>656</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>657</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C229" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
         <v>659</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>660</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
         <v>662</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>663</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>665</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>666</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>668</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>669</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>671</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>672</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="B235" t="s">
         <v>674</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C235" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="B236" t="s">
         <v>676</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C236" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="B237" t="s">
         <v>678</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C237" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
         <v>680</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>681</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
         <v>683</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>684</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
         <v>686</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>687</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>689</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>690</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>692</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>693</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C242" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>695</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>696</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C243" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>698</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>699</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>701</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>702</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C245" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
         <v>704</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>705</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C246" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
         <v>707</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>708</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C247" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
         <v>710</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>711</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C248" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
         <v>713</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>714</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C249" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
         <v>716</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>717</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C250" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>719</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>720</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C251" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
         <v>722</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>723</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C252" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
         <v>725</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>726</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C253" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
         <v>728</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>729</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C254" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+      <c r="B255" t="s">
         <v>731</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C255" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
         <v>733</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>734</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
         <v>736</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>737</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>739</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>740</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C258" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>742</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>743</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>745</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>746</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C260" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>748</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>749</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
         <v>751</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>752</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+      <c r="B263" t="s">
         <v>754</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C263" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
         <v>756</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>757</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C264" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
         <v>759</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>760</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C265" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
         <v>762</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>763</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C266" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>765</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>766</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>768</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>769</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
         <v>771</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B269" t="s">
         <v>772</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C269" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
         <v>774</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B270" t="s">
         <v>775</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C270" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
         <v>777</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B271" t="s">
         <v>778</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C271" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
         <v>780</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B272" t="s">
         <v>781</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C272" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
         <v>783</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B273" t="s">
         <v>784</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C273" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
         <v>786</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B274" t="s">
         <v>787</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C274" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
         <v>789</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B275" t="s">
         <v>790</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C275" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
         <v>792</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B276" t="s">
         <v>793</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C276" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>795</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B277" t="s">
         <v>796</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C277" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>798</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B278" t="s">
         <v>799</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C278" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>801</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
         <v>802</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C279" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
         <v>804</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
         <v>805</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C280" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
         <v>807</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B281" t="s">
         <v>808</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C281" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
         <v>810</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>811</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C282" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
         <v>813</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>814</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
         <v>816</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B284" t="s">
         <v>817</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C284" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>819</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B285" t="s">
         <v>820</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C285" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>822</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>823</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C286" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>825</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>826</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C287" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>828</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>829</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C288" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>831</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B289" t="s">
         <v>832</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C289" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>834</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>835</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C290" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>837</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>838</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C291" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>840</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>841</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C292" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>843</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>844</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C293" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>846</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B294" t="s">
         <v>847</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C294" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+      <c r="B295" t="s">
         <v>849</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C295" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
         <v>851</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B296" t="s">
         <v>852</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C296" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
         <v>854</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>855</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C297" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
         <v>857</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>858</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C298" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
         <v>860</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B299" t="s">
         <v>861</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C299" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
         <v>863</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B300" t="s">
         <v>864</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+      <c r="B301" t="s">
         <v>866</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C301" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>868</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>869</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C302" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
         <v>871</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>872</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C303" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
         <v>874</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B304" t="s">
         <v>875</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C304" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
         <v>877</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B305" t="s">
         <v>878</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C305" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
         <v>880</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>881</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C306" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+      <c r="B307" t="s">
         <v>883</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C307" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+      <c r="B308" t="s">
         <v>885</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C308" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
         <v>887</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B309" t="s">
         <v>888</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C309" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
         <v>890</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B310" t="s">
         <v>891</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C310" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
         <v>893</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>894</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C311" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
+      <c r="B312" t="s">
         <v>896</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C312" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>898</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>899</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C313" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>901</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>902</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C314" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
+      <c r="B315" t="s">
         <v>904</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C315" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>906</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>907</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C316" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>909</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B317" t="s">
         <v>910</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C317" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>912</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>913</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C318" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>915</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>916</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C319" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
         <v>918</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>919</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C320" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>921</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>922</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C321" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>924</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>925</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C322" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>927</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B323" t="s">
         <v>928</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C323" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>930</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>931</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C324" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>933</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>934</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C325" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>936</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>937</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C326" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>939</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>940</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C327" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>942</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>943</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C328" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>945</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>946</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C329" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>948</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B330" t="s">
         <v>949</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C330" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>951</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>952</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C331" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>954</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>955</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C332" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>957</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>958</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C333" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>960</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>961</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C334" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+      <c r="B335" t="s">
         <v>963</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C335" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>965</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>966</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C336" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
         <v>968</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>969</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C337" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
         <v>971</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
         <v>972</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C338" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
         <v>974</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>975</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C339" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
         <v>977</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>978</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C340" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
         <v>980</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>981</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C341" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
         <v>983</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>984</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C342" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
         <v>986</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B343" t="s">
         <v>987</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C343" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
         <v>989</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B344" t="s">
         <v>990</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C344" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
         <v>992</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B345" t="s">
         <v>993</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C345" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
         <v>995</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B346" t="s">
         <v>996</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C346" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
         <v>998</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B347" t="s">
         <v>999</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C347" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
         <v>1001</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B348" t="s">
         <v>1002</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C348" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
+      <c r="B349" t="s">
         <v>1004</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C349" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
+      <c r="B350" t="s">
         <v>1006</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C350" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
+      <c r="B351" t="s">
         <v>1008</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C351" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+      <c r="B352" t="s">
         <v>1010</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C352" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
+      <c r="B353" t="s">
         <v>1012</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C353" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
+      <c r="B354" t="s">
         <v>1014</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C354" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
+      <c r="B355" t="s">
         <v>1016</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C355" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+      <c r="B356" t="s">
         <v>1018</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C356" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
+      <c r="B357" t="s">
         <v>1020</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C357" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+      <c r="B358" t="s">
         <v>1022</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C358" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" t="s">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
         <v>1024</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B359" t="s">
         <v>1025</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C359" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>1027</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B360" t="s">
         <v>1028</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C360" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360" t="s">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>1030</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B361" t="s">
         <v>1031</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C361" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
         <v>1033</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B362" t="s">
         <v>1034</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C362" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" t="s">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>1036</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B363" t="s">
         <v>1037</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C363" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
         <v>1039</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B364" t="s">
         <v>1040</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C364" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364" t="s">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
         <v>1042</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B365" t="s">
         <v>1043</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C365" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
         <v>1045</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B366" t="s">
         <v>1046</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C366" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
         <v>1048</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B367" t="s">
         <v>1049</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C367" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
         <v>1051</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B368" t="s">
         <v>1052</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C368" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368" t="s">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
         <v>1054</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B369" t="s">
         <v>1055</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C369" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>1057</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B370" t="s">
         <v>1058</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C370" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" t="s">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
         <v>1060</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B371" t="s">
         <v>1061</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C371" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
         <v>1063</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B372" t="s">
         <v>1064</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C372" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
         <v>1066</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B373" t="s">
         <v>1067</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C373" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
         <v>1069</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B374" t="s">
         <v>1070</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C374" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
         <v>1072</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B375" t="s">
         <v>1073</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C375" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
         <v>1075</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B376" t="s">
         <v>1076</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C376" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
         <v>1078</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B377" t="s">
         <v>1079</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C377" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
         <v>1081</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B378" t="s">
         <v>1082</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C378" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
         <v>1084</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B379" t="s">
         <v>1085</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C379" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
         <v>1087</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B380" t="s">
         <v>1088</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C380" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
         <v>1090</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B381" t="s">
         <v>1091</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C381" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
         <v>1093</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B382" t="s">
         <v>1094</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C382" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382" t="s">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
         <v>1096</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B383" t="s">
         <v>1097</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C383" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
         <v>1099</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B384" t="s">
         <v>1100</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C384" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384" t="s">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
         <v>1102</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B385" t="s">
         <v>1103</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C385" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
         <v>1105</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>1106</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C386" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386" t="s">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>1108</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B387" t="s">
         <v>1109</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C387" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
         <v>1111</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B388" t="s">
         <v>1112</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C388" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388" t="s">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
         <v>1114</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B389" t="s">
         <v>1115</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C389" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389" t="s">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
         <v>1117</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B390" t="s">
         <v>1118</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C390" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390" t="s">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
         <v>1120</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B391" t="s">
         <v>1121</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C391" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
         <v>1123</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B392" t="s">
         <v>1124</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C392" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392" t="s">
+      <c r="B393" t="s">
         <v>1126</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C393" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393" t="s">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
         <v>1128</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B394" t="s">
         <v>1129</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C394" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
         <v>1131</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B395" t="s">
         <v>1132</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C395" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
         <v>1134</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B396" t="s">
         <v>1135</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C396" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396" t="s">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
         <v>1137</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B397" t="s">
         <v>1138</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C397" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
         <v>1140</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>1141</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C398" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398" t="s">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
         <v>1143</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B399" t="s">
         <v>1144</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C399" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
         <v>1146</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B400" t="s">
         <v>1147</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C400" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400" t="s">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
         <v>1149</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B401" t="s">
         <v>1150</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C401" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401" t="s">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
         <v>1152</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B402" t="s">
         <v>1153</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C402" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
         <v>1155</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B403" t="s">
         <v>1156</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C403" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403" t="s">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>1158</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B404" t="s">
         <v>1159</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C404" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404" t="s">
+      <c r="B405" t="s">
         <v>1161</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C405" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405" t="s">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
         <v>1163</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B406" t="s">
         <v>1164</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C406" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406" t="s">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
         <v>1166</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B407" t="s">
         <v>1167</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C407" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407" t="s">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
         <v>1169</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B408" t="s">
         <v>1170</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C408" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408" t="s">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
         <v>1172</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B409" t="s">
         <v>1173</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C409" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409" t="s">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
         <v>1175</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B410" t="s">
         <v>1176</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C410" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410" t="s">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
         <v>1178</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B411" t="s">
         <v>1179</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C411" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411" t="s">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
         <v>1181</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B412" t="s">
         <v>1182</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C412" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412" t="s">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
         <v>1184</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B413" t="s">
         <v>1185</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C413" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413" t="s">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
         <v>1187</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B414" t="s">
         <v>1188</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C414" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414" t="s">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
         <v>1190</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B415" t="s">
         <v>1191</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C415" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415" t="s">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
         <v>1193</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B416" t="s">
         <v>1194</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C416" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416" t="s">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
         <v>1196</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B417" t="s">
         <v>1197</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C417" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417" t="s">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
         <v>1199</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
         <v>1200</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C418" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418" t="s">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
         <v>1202</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B419" t="s">
         <v>1203</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C419" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419" t="s">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
         <v>1205</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B420" t="s">
         <v>1206</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C420" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420" t="s">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>1208</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B421" t="s">
         <v>1209</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C421" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421" t="s">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
         <v>1211</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B422" t="s">
         <v>1212</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C422" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422" t="s">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
         <v>1214</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B423" t="s">
         <v>1215</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C423" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423" t="s">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
         <v>1217</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B424" t="s">
         <v>1218</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C424" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424" t="s">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
         <v>1220</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B425" t="s">
         <v>1221</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C425" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425" t="s">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
         <v>1223</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B426" t="s">
         <v>1224</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C426" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426" t="s">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
         <v>1226</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B427" t="s">
         <v>1227</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C427" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427" t="s">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
         <v>1229</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B428" t="s">
         <v>1230</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C428" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428" t="s">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
         <v>1232</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B429" t="s">
         <v>1233</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C429" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429" t="s">
+      <c r="B430" t="s">
         <v>1235</v>
       </c>
-      <c r="B429" t="s">
+      <c r="C430" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430" t="s">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
         <v>1237</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B431" t="s">
         <v>1238</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C431" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431" t="s">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
         <v>1240</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B432" t="s">
         <v>1241</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C432" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
         <v>1243</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B433" t="s">
         <v>1244</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C433" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433" t="s">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
         <v>1246</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B434" t="s">
         <v>1247</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C434" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434" t="s">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
         <v>1249</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B435" t="s">
         <v>1250</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C435" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435" t="s">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
         <v>1252</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B436" t="s">
         <v>1253</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C436" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436" t="s">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
         <v>1255</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B437" t="s">
         <v>1256</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C437" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437" t="s">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
         <v>1258</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B438" t="s">
         <v>1259</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C438" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
         <v>1261</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B439" t="s">
         <v>1262</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C439" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439" t="s">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
         <v>1264</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B440" t="s">
         <v>1265</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C440" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440" t="s">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
         <v>1267</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B441" t="s">
         <v>1268</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C441" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441" t="s">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
         <v>1270</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B442" t="s">
         <v>1271</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C442" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442" t="s">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
         <v>1273</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B443" t="s">
         <v>1274</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C443" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
         <v>1276</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B444" t="s">
         <v>1277</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C444" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444" t="s">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
         <v>1279</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B445" t="s">
         <v>1280</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C445" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
         <v>1282</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B446" t="s">
         <v>1283</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C446" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446" t="s">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
         <v>1285</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B447" t="s">
         <v>1286</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C447" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447" t="s">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
         <v>1288</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B448" t="s">
         <v>1289</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C448" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448" t="s">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
         <v>1291</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B449" t="s">
         <v>1292</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C449" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449" t="s">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
         <v>1294</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B450" t="s">
         <v>1295</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C450" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450" t="s">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
         <v>1297</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B451" t="s">
         <v>1298</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C451" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
         <v>1300</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B452" t="s">
         <v>1301</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C452" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452" t="s">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
         <v>1303</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B453" t="s">
         <v>1304</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C453" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
         <v>1306</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B454" t="s">
         <v>1307</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454" t="s">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
         <v>1309</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B455" t="s">
         <v>1310</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C455" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455" t="s">
+      <c r="B456" t="s">
         <v>1312</v>
       </c>
-      <c r="B455" t="s">
+      <c r="C456" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
         <v>1313</v>
       </c>
-      <c r="C455" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
+      <c r="B457" t="s">
         <v>1314</v>
       </c>
-      <c r="B456" t="s">
+      <c r="C457" t="s">
         <v>1315</v>
       </c>
-      <c r="C456" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
         <v>1316</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B458" t="s">
         <v>1317</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C458" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
         <v>1319</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B459" t="s">
         <v>1320</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C459" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
         <v>1322</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B460" t="s">
         <v>1323</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C460" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460" t="s">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
         <v>1325</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B461" t="s">
         <v>1326</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C461" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461" t="s">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
         <v>1328</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B462" t="s">
         <v>1329</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C462" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462" t="s">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
         <v>1331</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B463" t="s">
         <v>1332</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C463" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463" t="s">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
         <v>1334</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B464" t="s">
         <v>1335</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C464" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464" t="s">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
         <v>1337</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B465" t="s">
         <v>1338</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C465" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465" t="s">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
         <v>1340</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B466" t="s">
         <v>1341</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C466" t="s">
         <v>1342</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
         <v>1343</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B467" t="s">
         <v>1344</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C467" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467" t="s">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
         <v>1346</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B468" t="s">
         <v>1347</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C468" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468" t="s">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
         <v>1349</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B469" t="s">
         <v>1350</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C469" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
         <v>1352</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B470" t="s">
         <v>1353</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C470" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470" t="s">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
         <v>1355</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B471" t="s">
         <v>1356</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C471" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471" t="s">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
         <v>1358</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B472" t="s">
         <v>1359</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C472" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472" t="s">
+      <c r="B473" t="s">
         <v>1361</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C473" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473" t="s">
+      <c r="B474" t="s">
         <v>1363</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C474" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474" t="s">
+      <c r="B475" t="s">
         <v>1365</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C475" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475" t="s">
+      <c r="B476" t="s">
         <v>1367</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C476" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476" t="s">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
         <v>1369</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B477" t="s">
         <v>1370</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C477" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477" t="s">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
         <v>1372</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B478" t="s">
         <v>1373</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C478" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478" t="s">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
         <v>1375</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B479" t="s">
         <v>1376</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C479" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479" t="s">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
         <v>1378</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B480" t="s">
         <v>1379</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C480" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480" t="s">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
         <v>1381</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B481" t="s">
         <v>1382</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C481" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481" t="s">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
         <v>1384</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B482" t="s">
         <v>1385</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C482" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
         <v>1387</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B483" t="s">
         <v>1388</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C483" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483" t="s">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
         <v>1390</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B484" t="s">
         <v>1391</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C484" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484" t="s">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
         <v>1393</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B485" t="s">
         <v>1394</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C485" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485" t="s">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
         <v>1396</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B486" t="s">
         <v>1397</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C486" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
         <v>1399</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B487" t="s">
         <v>1400</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C487" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
         <v>1402</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B488" t="s">
         <v>1403</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C488" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488" t="s">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
         <v>1405</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B489" t="s">
         <v>1406</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C489" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489" t="s">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
         <v>1408</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B490" t="s">
         <v>1409</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C490" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
         <v>1411</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B491" t="s">
         <v>1412</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C491" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
         <v>1414</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B492" t="s">
         <v>1415</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C492" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492" t="s">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
         <v>1417</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B493" t="s">
         <v>1418</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C493" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493" t="s">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
         <v>1420</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B494" t="s">
         <v>1421</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C494" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494" t="s">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
         <v>1423</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B495" t="s">
         <v>1424</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C495" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
         <v>1426</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B496" t="s">
         <v>1427</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C496" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496" t="s">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
         <v>1429</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B497" t="s">
         <v>1430</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C497" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497" t="s">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
         <v>1432</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B498" t="s">
         <v>1433</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C498" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498" t="s">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
         <v>1435</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B499" t="s">
         <v>1436</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C499" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
         <v>1438</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B500" t="s">
         <v>1439</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C500" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
         <v>1441</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B501" t="s">
         <v>1442</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C501" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
         <v>1444</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B502" t="s">
         <v>1445</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C502" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502" t="s">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
         <v>1447</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B503" t="s">
         <v>1448</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C503" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
         <v>1450</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B504" t="s">
         <v>1451</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C504" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504" t="s">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
         <v>1453</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B505" t="s">
         <v>1454</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C505" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505" t="s">
+      <c r="B506" t="s">
         <v>1456</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C506" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506" t="s">
+      <c r="B507" t="s">
         <v>1458</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C507" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
         <v>1460</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B508" t="s">
         <v>1461</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C508" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
         <v>1463</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B509" t="s">
         <v>1464</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C509" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509" t="s">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
         <v>1466</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B510" t="s">
         <v>1467</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C510" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510" t="s">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
         <v>1469</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B511" t="s">
         <v>1470</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C511" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511" t="s">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
         <v>1472</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B512" t="s">
         <v>1473</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C512" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
         <v>1475</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B513" t="s">
         <v>1476</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C513" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
         <v>1478</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B514" t="s">
         <v>1479</v>
       </c>
-      <c r="C513" t="s">
+      <c r="C514" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
         <v>1481</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B515" t="s">
         <v>1482</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C515" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
         <v>1484</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B516" t="s">
         <v>1485</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C516" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
         <v>1487</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B517" t="s">
         <v>1488</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C517" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517" t="s">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
         <v>1490</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B518" t="s">
         <v>1491</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C518" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518" t="s">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
         <v>1493</v>
       </c>
-      <c r="B518" t="s">
+      <c r="B519" t="s">
         <v>1494</v>
       </c>
-      <c r="C518" t="s">
+      <c r="C519" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519" t="s">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
         <v>1496</v>
       </c>
-      <c r="B519" t="s">
+      <c r="B520" t="s">
         <v>1497</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C520" t="s">
         <v>1498</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
         <v>1499</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B521" t="s">
         <v>1500</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C521" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521" t="s">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
         <v>1502</v>
       </c>
-      <c r="B521" t="s">
+      <c r="B522" t="s">
         <v>1503</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C522" t="s">
         <v>1504</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522" t="s">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
         <v>1505</v>
       </c>
-      <c r="B522" t="s">
+      <c r="B523" t="s">
         <v>1506</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C523" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523" t="s">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
         <v>1508</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B524" t="s">
         <v>1509</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C524" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524" t="s">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
         <v>1511</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B525" t="s">
         <v>1512</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C525" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525" t="s">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
         <v>1514</v>
       </c>
-      <c r="B525" t="s">
+      <c r="B526" t="s">
         <v>1515</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C526" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A526" t="s">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
         <v>1517</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B527" t="s">
         <v>1518</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C527" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527" t="s">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
         <v>1520</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B528" t="s">
         <v>1521</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C528" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528" t="s">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
         <v>1523</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B529" t="s">
         <v>1524</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C529" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529" t="s">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
         <v>1526</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B530" t="s">
         <v>1527</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C530" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530" t="s">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
         <v>1529</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B531" t="s">
         <v>1530</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C531" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A531" t="s">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
         <v>1532</v>
       </c>
-      <c r="B531" t="s">
+      <c r="B532" t="s">
         <v>1533</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C532" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A532" t="s">
+      <c r="B533" t="s">
         <v>1535</v>
       </c>
-      <c r="B532" t="s">
+      <c r="C533" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A533" t="s">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
         <v>1537</v>
       </c>
-      <c r="B533" t="s">
+      <c r="B534" t="s">
         <v>1538</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C534" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A534" t="s">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
         <v>1540</v>
       </c>
-      <c r="B534" t="s">
+      <c r="B535" t="s">
         <v>1541</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C535" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A535" t="s">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
         <v>1543</v>
       </c>
-      <c r="B535" t="s">
+      <c r="B536" t="s">
         <v>1544</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C536" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A536" t="s">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
         <v>1546</v>
       </c>
-      <c r="B536" t="s">
+      <c r="B537" t="s">
         <v>1547</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C537" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A537" t="s">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
         <v>1549</v>
       </c>
-      <c r="B537" t="s">
+      <c r="B538" t="s">
         <v>1550</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C538" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A538" t="s">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
         <v>1552</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B539" t="s">
         <v>1553</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C539" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A539" t="s">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
         <v>1555</v>
       </c>
-      <c r="B539" t="s">
+      <c r="B540" t="s">
         <v>1556</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C540" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A540" t="s">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
         <v>1558</v>
       </c>
-      <c r="B540" t="s">
+      <c r="B541" t="s">
         <v>1559</v>
       </c>
-      <c r="C540" t="s">
+      <c r="C541" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
         <v>1561</v>
       </c>
-      <c r="B541" t="s">
+      <c r="B542" t="s">
         <v>1562</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C542" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A542" t="s">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
         <v>1564</v>
       </c>
-      <c r="B542" t="s">
+      <c r="B543" t="s">
         <v>1565</v>
       </c>
-      <c r="C542" t="s">
+      <c r="C543" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A543" t="s">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
         <v>1567</v>
       </c>
-      <c r="B543" t="s">
+      <c r="B544" t="s">
         <v>1568</v>
       </c>
-      <c r="C543" t="s">
+      <c r="C544" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A544" t="s">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
         <v>1570</v>
       </c>
-      <c r="B544" t="s">
+      <c r="B545" t="s">
         <v>1571</v>
       </c>
-      <c r="C544" t="s">
+      <c r="C545" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A545" t="s">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
         <v>1573</v>
       </c>
-      <c r="B545" t="s">
+      <c r="B546" t="s">
         <v>1574</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C546" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A546" t="s">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
         <v>1576</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B547" t="s">
         <v>1577</v>
       </c>
-      <c r="C546" t="s">
+      <c r="C547" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A547" t="s">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
         <v>1579</v>
       </c>
-      <c r="B547" t="s">
+      <c r="B548" t="s">
         <v>1580</v>
       </c>
-      <c r="C547" t="s">
+      <c r="C548" t="s">
         <v>1581</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
         <v>1582</v>
       </c>
-      <c r="B548" t="s">
+      <c r="B549" t="s">
         <v>1583</v>
       </c>
-      <c r="C548" t="s">
+      <c r="C549" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A549" t="s">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
         <v>1585</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B550" t="s">
         <v>1586</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C550" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A550" t="s">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
         <v>1588</v>
       </c>
-      <c r="B550" t="s">
+      <c r="B551" t="s">
         <v>1589</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C551" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A551" t="s">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
         <v>1591</v>
       </c>
-      <c r="B551" t="s">
+      <c r="B552" t="s">
         <v>1592</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C552" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A552" t="s">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
         <v>1594</v>
       </c>
-      <c r="B552" t="s">
+      <c r="B553" t="s">
         <v>1595</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C553" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A553" t="s">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
         <v>1597</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B554" t="s">
         <v>1598</v>
       </c>
-      <c r="C553" t="s">
+      <c r="C554" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A554" t="s">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
         <v>1600</v>
       </c>
-      <c r="B554" t="s">
+      <c r="B555" t="s">
         <v>1601</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C555" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
         <v>1603</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B556" t="s">
         <v>1604</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C556" t="s">
         <v>1605</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A556" t="s">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
         <v>1606</v>
       </c>
-      <c r="B556" t="s">
+      <c r="B557" t="s">
         <v>1607</v>
       </c>
-      <c r="C556" t="s">
+      <c r="C557" t="s">
         <v>1608</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A557" t="s">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
         <v>1609</v>
       </c>
-      <c r="B557" t="s">
+      <c r="B558" t="s">
         <v>1610</v>
       </c>
-      <c r="C557" t="s">
+      <c r="C558" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A558" t="s">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
         <v>1612</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B559" t="s">
         <v>1613</v>
       </c>
-      <c r="C558" t="s">
+      <c r="C559" t="s">
         <v>1614</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A559" t="s">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
         <v>1615</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B560" t="s">
         <v>1616</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C560" t="s">
         <v>1617</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A560" t="s">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
         <v>1618</v>
       </c>
-      <c r="B560" t="s">
+      <c r="B561" t="s">
         <v>1619</v>
       </c>
-      <c r="C560" t="s">
+      <c r="C561" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A561" t="s">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
         <v>1621</v>
       </c>
-      <c r="B561" t="s">
+      <c r="B562" t="s">
         <v>1622</v>
       </c>
-      <c r="C561" t="s">
+      <c r="C562" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
         <v>1624</v>
       </c>
-      <c r="B562" t="s">
+      <c r="B563" t="s">
         <v>1625</v>
       </c>
-      <c r="C562" t="s">
+      <c r="C563" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A563" t="s">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
         <v>1627</v>
       </c>
-      <c r="B563" t="s">
+      <c r="B564" t="s">
         <v>1628</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C564" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A564" t="s">
+      <c r="B565" t="s">
         <v>1630</v>
       </c>
-      <c r="B564" t="s">
+      <c r="C565" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A565" t="s">
+      <c r="B566" t="s">
         <v>1632</v>
       </c>
-      <c r="B565" t="s">
+      <c r="C566" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A566" t="s">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
         <v>1634</v>
       </c>
-      <c r="B566" t="s">
+      <c r="B567" t="s">
         <v>1635</v>
       </c>
-      <c r="C566" t="s">
+      <c r="C567" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A567" t="s">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
         <v>1637</v>
       </c>
-      <c r="B567" t="s">
+      <c r="B568" t="s">
         <v>1638</v>
       </c>
-      <c r="C567" t="s">
+      <c r="C568" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A568" t="s">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
         <v>1640</v>
       </c>
-      <c r="B568" t="s">
+      <c r="B569" t="s">
         <v>1641</v>
       </c>
-      <c r="C568" t="s">
+      <c r="C569" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A569" t="s">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
         <v>1643</v>
       </c>
-      <c r="B569" t="s">
+      <c r="B570" t="s">
         <v>1644</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C570" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A570" t="s">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
         <v>1646</v>
       </c>
-      <c r="B570" t="s">
+      <c r="B571" t="s">
         <v>1647</v>
       </c>
-      <c r="C570" t="s">
+      <c r="C571" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A571" t="s">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
         <v>1649</v>
       </c>
-      <c r="B571" t="s">
+      <c r="B572" t="s">
         <v>1650</v>
       </c>
-      <c r="C571" t="s">
+      <c r="C572" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A572" t="s">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
         <v>1652</v>
       </c>
-      <c r="B572" t="s">
+      <c r="B573" t="s">
         <v>1653</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C573" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A573" t="s">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
         <v>1655</v>
       </c>
-      <c r="B573" t="s">
+      <c r="B574" t="s">
         <v>1656</v>
       </c>
-      <c r="C573" t="s">
+      <c r="C574" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A574" t="s">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
         <v>1658</v>
       </c>
-      <c r="B574" t="s">
+      <c r="B575" t="s">
         <v>1659</v>
       </c>
-      <c r="C574" t="s">
+      <c r="C575" t="s">
         <v>1660</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A575" t="s">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
         <v>1661</v>
       </c>
-      <c r="B575" t="s">
+      <c r="B576" t="s">
         <v>1662</v>
       </c>
-      <c r="C575" t="s">
+      <c r="C576" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A576" t="s">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
         <v>1664</v>
       </c>
-      <c r="B576" t="s">
+      <c r="B577" t="s">
         <v>1665</v>
       </c>
-      <c r="C576" t="s">
+      <c r="C577" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A577" t="s">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
         <v>1667</v>
       </c>
-      <c r="B577" t="s">
+      <c r="B578" t="s">
         <v>1668</v>
       </c>
-      <c r="C577" t="s">
+      <c r="C578" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A578" t="s">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
         <v>1670</v>
       </c>
-      <c r="B578" t="s">
+      <c r="B579" t="s">
         <v>1671</v>
       </c>
-      <c r="C578" t="s">
+      <c r="C579" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A579" t="s">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
         <v>1673</v>
       </c>
-      <c r="B579" t="s">
+      <c r="B580" t="s">
         <v>1674</v>
       </c>
-      <c r="C579" t="s">
+      <c r="C580" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A580" t="s">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
         <v>1676</v>
       </c>
-      <c r="B580" t="s">
+      <c r="B581" t="s">
         <v>1677</v>
       </c>
-      <c r="C580" t="s">
+      <c r="C581" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
         <v>1678</v>
       </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
+      <c r="B582" t="s">
         <v>1679</v>
       </c>
-      <c r="B581" t="s">
+      <c r="C582" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A582" t="s">
+      <c r="B583" t="s">
         <v>1681</v>
       </c>
-      <c r="B582" t="s">
+      <c r="C583" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A583" t="s">
+      <c r="B584" t="s">
         <v>1683</v>
       </c>
-      <c r="B583" t="s">
+      <c r="C584" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A584" t="s">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
         <v>1685</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B585" t="s">
         <v>1686</v>
       </c>
-      <c r="C584" t="s">
+      <c r="C585" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A585" t="s">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
         <v>1688</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B586" t="s">
         <v>1689</v>
       </c>
-      <c r="C585" t="s">
+      <c r="C586" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A586" t="s">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
         <v>1691</v>
       </c>
-      <c r="B586" t="s">
+      <c r="B587" t="s">
         <v>1692</v>
       </c>
-      <c r="C586" t="s">
+      <c r="C587" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A587" t="s">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
         <v>1694</v>
       </c>
-      <c r="B587" t="s">
+      <c r="B588" t="s">
         <v>1695</v>
       </c>
-      <c r="C587" t="s">
+      <c r="C588" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A588" t="s">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
         <v>1697</v>
       </c>
-      <c r="B588" t="s">
+      <c r="B589" t="s">
         <v>1698</v>
       </c>
-      <c r="C588" t="s">
+      <c r="C589" t="s">
         <v>1699</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A589" t="s">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
         <v>1700</v>
       </c>
-      <c r="B589" t="s">
+      <c r="B590" t="s">
         <v>1701</v>
       </c>
-      <c r="C589" t="s">
+      <c r="C590" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A590" t="s">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
         <v>1703</v>
       </c>
-      <c r="B590" t="s">
+      <c r="B591" t="s">
         <v>1704</v>
       </c>
-      <c r="C590" t="s">
+      <c r="C591" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A591" t="s">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
         <v>1706</v>
       </c>
-      <c r="B591" t="s">
+      <c r="B592" t="s">
         <v>1707</v>
       </c>
-      <c r="C591" t="s">
+      <c r="C592" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A592" t="s">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
         <v>1709</v>
       </c>
-      <c r="B592" t="s">
+      <c r="B593" t="s">
         <v>1710</v>
       </c>
-      <c r="C592" t="s">
+      <c r="C593" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
         <v>1712</v>
       </c>
-      <c r="B593" t="s">
+      <c r="B594" t="s">
         <v>1713</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C594" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A594" t="s">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
         <v>1715</v>
       </c>
-      <c r="B594" t="s">
+      <c r="B595" t="s">
         <v>1716</v>
       </c>
-      <c r="C594" t="s">
+      <c r="C595" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A595" t="s">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
         <v>1718</v>
       </c>
-      <c r="B595" t="s">
+      <c r="B596" t="s">
         <v>1719</v>
       </c>
-      <c r="C595" t="s">
+      <c r="C596" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A596" t="s">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
         <v>1721</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B597" t="s">
         <v>1722</v>
       </c>
-      <c r="C596" t="s">
+      <c r="C597" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A597" t="s">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
         <v>1724</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B598" t="s">
         <v>1725</v>
       </c>
-      <c r="C597" t="s">
+      <c r="C598" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A598" t="s">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
         <v>1727</v>
       </c>
-      <c r="B598" t="s">
+      <c r="B599" t="s">
         <v>1728</v>
       </c>
-      <c r="C598" t="s">
+      <c r="C599" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
         <v>1729</v>
       </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A599" t="s">
+      <c r="B600" t="s">
         <v>1730</v>
       </c>
-      <c r="B599" t="s">
+      <c r="C600" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A600" t="s">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
         <v>1732</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B601" t="s">
         <v>1733</v>
       </c>
-      <c r="C600" t="s">
+      <c r="C601" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A601" t="s">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
         <v>1735</v>
       </c>
-      <c r="B601" t="s">
+      <c r="B602" t="s">
         <v>1736</v>
       </c>
-      <c r="C601" t="s">
+      <c r="C602" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A602" t="s">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
         <v>1738</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B603" t="s">
         <v>1739</v>
       </c>
-      <c r="C602" t="s">
+      <c r="C603" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A603" t="s">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
         <v>1741</v>
       </c>
-      <c r="B603" t="s">
+      <c r="B604" t="s">
         <v>1742</v>
       </c>
-      <c r="C603" t="s">
+      <c r="C604" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A604" t="s">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
         <v>1744</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B605" t="s">
         <v>1745</v>
       </c>
-      <c r="C604" t="s">
+      <c r="C605" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A605" t="s">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
         <v>1747</v>
       </c>
-      <c r="B605" t="s">
+      <c r="B606" t="s">
         <v>1748</v>
       </c>
-      <c r="C605" t="s">
+      <c r="C606" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A606" t="s">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
         <v>1750</v>
       </c>
-      <c r="B606" t="s">
+      <c r="B607" t="s">
         <v>1751</v>
       </c>
-      <c r="C606" t="s">
+      <c r="C607" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A607" t="s">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
         <v>1753</v>
       </c>
-      <c r="B607" t="s">
+      <c r="B608" t="s">
         <v>1754</v>
       </c>
-      <c r="C607" t="s">
+      <c r="C608" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A608" t="s">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
         <v>1756</v>
       </c>
-      <c r="B608" t="s">
+      <c r="B609" t="s">
         <v>1757</v>
       </c>
-      <c r="C608" t="s">
+      <c r="C609" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A609" t="s">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
         <v>1759</v>
       </c>
-      <c r="B609" t="s">
+      <c r="B610" t="s">
         <v>1760</v>
       </c>
-      <c r="C609" t="s">
+      <c r="C610" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A610" t="s">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
         <v>1762</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B611" t="s">
         <v>1763</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C611" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A611" t="s">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
         <v>1765</v>
       </c>
-      <c r="B611" t="s">
+      <c r="B612" t="s">
         <v>1766</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C612" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A612" t="s">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
         <v>1768</v>
       </c>
-      <c r="B612" t="s">
+      <c r="B613" t="s">
         <v>1769</v>
       </c>
-      <c r="C612" t="s">
+      <c r="C613" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A613" t="s">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
         <v>1771</v>
       </c>
-      <c r="B613" t="s">
+      <c r="B614" t="s">
         <v>1772</v>
       </c>
-      <c r="C613" t="s">
+      <c r="C614" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A614" t="s">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
         <v>1774</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B615" t="s">
         <v>1775</v>
       </c>
-      <c r="C614" t="s">
+      <c r="C615" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A615" t="s">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
         <v>1777</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B616" t="s">
         <v>1778</v>
       </c>
-      <c r="C615" t="s">
+      <c r="C616" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A616" t="s">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
         <v>1780</v>
       </c>
-      <c r="B616" t="s">
+      <c r="B617" t="s">
         <v>1781</v>
       </c>
-      <c r="C616" t="s">
+      <c r="C617" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A617" t="s">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
         <v>1783</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B618" t="s">
         <v>1784</v>
       </c>
-      <c r="C617" t="s">
+      <c r="C618" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A618" t="s">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
         <v>1786</v>
       </c>
-      <c r="B618" t="s">
+      <c r="B619" t="s">
         <v>1787</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C619" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A619" t="s">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
         <v>1789</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B620" t="s">
         <v>1790</v>
       </c>
-      <c r="C619" t="s">
+      <c r="C620" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A620" t="s">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
         <v>1792</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B621" t="s">
         <v>1793</v>
       </c>
-      <c r="C620" t="s">
+      <c r="C621" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A621" t="s">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
         <v>1795</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B622" t="s">
         <v>1796</v>
       </c>
-      <c r="C621" t="s">
+      <c r="C622" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A622" t="s">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
         <v>1798</v>
       </c>
-      <c r="B622" t="s">
+      <c r="B623" t="s">
         <v>1799</v>
       </c>
-      <c r="C622" t="s">
+      <c r="C623" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A623" t="s">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
         <v>1801</v>
       </c>
-      <c r="B623" t="s">
+      <c r="B624" t="s">
         <v>1802</v>
       </c>
-      <c r="C623" t="s">
+      <c r="C624" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" t="s">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
         <v>1804</v>
       </c>
-      <c r="B624" t="s">
+      <c r="B625" t="s">
         <v>1805</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C625" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A625" t="s">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
         <v>1807</v>
       </c>
-      <c r="B625" t="s">
+      <c r="B626" t="s">
         <v>1808</v>
       </c>
-      <c r="C625" t="s">
+      <c r="C626" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A626" t="s">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
         <v>1810</v>
       </c>
-      <c r="B626" t="s">
+      <c r="B627" t="s">
         <v>1811</v>
       </c>
-      <c r="C626" t="s">
+      <c r="C627" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A627" t="s">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
         <v>1813</v>
       </c>
-      <c r="B627" t="s">
+      <c r="B628" t="s">
         <v>1814</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C628" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A628" t="s">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
         <v>1816</v>
       </c>
-      <c r="B628" t="s">
+      <c r="B629" t="s">
         <v>1817</v>
       </c>
-      <c r="C628" t="s">
+      <c r="C629" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A629" t="s">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
         <v>1819</v>
       </c>
-      <c r="B629" t="s">
+      <c r="B630" t="s">
         <v>1820</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C630" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A630" t="s">
-        <v>1822</v>
-      </c>
-      <c r="B630" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C630" t="s">
-        <v>1824</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C630" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
